--- a/output/checklists/club003_さくらアリーナ/03_check_paper3_article_of_association_club003_さくらアリーナ_R6.xlsx
+++ b/output/checklists/club003_さくらアリーナ/03_check_paper3_article_of_association_club003_さくらアリーナ_R6.xlsx
@@ -1562,7 +1562,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-23</t>
         </is>
       </c>
     </row>
